--- a/data/2025 PCP Accept New Patients.xlsx
+++ b/data/2025 PCP Accept New Patients.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>Operating Hours</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Wheelchair Accessible</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,6 +492,7 @@
 Sunday: 10:00 am to 1:00 pm (EST)</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,6 +517,7 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -535,6 +542,7 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +567,7 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -597,6 +606,7 @@
 Saturday 9am-12pm</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -640,6 +650,7 @@
 Urgent Care Clinic: 5:00 PM - 8:00 PM Monday to Thursday &amp; 10:00 AM to 1:00 PM on Saturday</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -676,6 +687,7 @@
 Saturday  8:00 am – 2:00 pm</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -706,6 +718,7 @@
 Thur – Fri  8:00 am – 6:00 pm</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -745,6 +758,7 @@
 Urgent Care Clinic (Saturday) 9:00am – 12:00pm</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -777,6 +791,7 @@
           <t>Mon-Fri   10am-7pm</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +831,7 @@
 Sunday	10:30 a.m.–4 p.m.</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -852,6 +868,7 @@
 Sun: 7 am–4pm</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -892,6 +909,7 @@
 Sunday	9 a.m.–1 p.m.</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -929,6 +947,7 @@
 Sunday: Closed.</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -969,6 +988,7 @@
 Sunday: CLOSED</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1009,6 +1029,7 @@
 Holiday Hours: Dec 22 - Jan 2</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1048,6 +1069,7 @@
 Sat	9am-4pm</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1084,6 +1106,7 @@
 Every Tuesday and Thursday: 9:30am – 3:30pm</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1118,6 +1141,7 @@
 Sunday 9am-4pm</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1158,6 +1182,7 @@
 Sun: Closed</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1182,6 +1207,7 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1218,6 +1244,7 @@
 Sunday 9:00 AM - 12:00 PM</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1258,6 +1285,7 @@
 Sunday	9 a.m.–5 p.m.</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1287,6 +1315,7 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1327,6 +1356,7 @@
 Sunday            Closed</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1361,6 +1391,7 @@
           <t>Monday - Friday: 9:45AM–4.45PM</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1396,6 +1427,7 @@
 Friday: 9AM–12 noon</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1435,6 +1467,7 @@
 Sunday	Closed</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1469,6 +1502,7 @@
 https://www.fmtu.summervillefht.com/displayPage.php?page=HoursofOperation</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1503,6 +1537,7 @@
 https://www.twfht.ca/displayPage.php?page=Hours2</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1532,6 +1567,7 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1567,6 +1603,7 @@
 Sun 10AM-6PM</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1601,6 +1638,7 @@
 After hours Mon-Thur 5-8pm</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1640,6 +1678,7 @@
 Sunday	Closed</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1680,6 +1719,7 @@
 Sunday	9 a.m.–5 p.m.</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1714,6 +1754,7 @@
 https://ethp.ca/our-work/health-access-taylor-massey/</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1750,6 +1791,7 @@
 11:00 AM – 5:00 PM</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1791,6 +1833,7 @@
 After Hours: Monday to Thursday Evening from 5pm - 8pm and Saturday Morning from 9am-12pm</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1825,6 +1868,7 @@
 Sunday : Close</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1858,6 +1902,7 @@
           <t>Our phones are answered as follows: Monday to Friday 9am to 8pm and Saturdays 9am to 2pm</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1898,6 +1943,7 @@
 Sunday	9:00 AM - 4:00 PM</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1937,6 +1983,7 @@
 Sunday	Closed</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1976,6 +2023,7 @@
 Sunday	Closed</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2015,6 +2063,7 @@
 Sunday	Closed</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2054,6 +2103,7 @@
 Sunday	9:00 AM - 5:00 PM</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2093,6 +2143,7 @@
 Sunday	9:00 AM - 4:00 PM</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2133,6 +2184,7 @@
 Sun	Closed	-	Closed</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2173,6 +2225,7 @@
 Sunday: Closed</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2197,6 +2250,7 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2234,6 +2288,7 @@
 *Please note: Most sites are closed for meetings from 12:00pm – 3:00pm on Mondays.</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2270,6 +2325,7 @@
 *Please note: Most sites are closed for meetings from 12:00pm – 3:00pm on Mondays.</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2306,6 +2362,7 @@
 *Please note: Most sites are closed for meetings from 12:00pm – 3:00pm on Mondays.</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2344,6 +2401,54 @@
 Friday: 9:00am – 5:00pm</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Apex Medical Center</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1120 Kingston Rd, Scarborough, ON M1N 1N4</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Blantyre &amp; Kingston Rd</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Scarborough</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Phone: 416-690-7111
+Fax: 416-690-4111</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Monday 
+9:30 a.m. - 6:30 p.m.
+Tuesday 
+9:30 a.m. - 6:30 p.m.
+Wednesday 
+9:30 a.m. - 6:30 p.m.
+Thursday 
+9:30 a.m. - 6:30 p.m.
+Friday 
+9:30 a.m. - 6:30 p.m.
+Saturday 
+10 a.m. - 4 p.m.
+Sunday 
+10 a.m. - 5 p.m.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
